--- a/planets.xlsx
+++ b/planets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benj4539\Documents\GitHub\SolSystemet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DD070D-D95B-485E-821D-F3B520493446}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F737E46B-B576-41BC-B90E-1189D6EDE4A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="1650" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Navne</t>
   </si>
@@ -75,54 +75,12 @@
     <t>Diameter</t>
   </si>
   <si>
-    <t>15.329 km</t>
-  </si>
-  <si>
-    <t>38.025 km</t>
-  </si>
-  <si>
-    <t>40.075,16 km</t>
-  </si>
-  <si>
-    <t>24.343 km</t>
-  </si>
-  <si>
-    <t>439.263,8 km</t>
-  </si>
-  <si>
-    <t>378.675 km</t>
-  </si>
-  <si>
-    <t>159.354,1 km</t>
-  </si>
-  <si>
-    <t>154.705 km</t>
-  </si>
-  <si>
-    <t>4.879 km</t>
-  </si>
-  <si>
-    <t>12.104 km</t>
-  </si>
-  <si>
-    <t>12.756,1 km</t>
-  </si>
-  <si>
-    <t>6.794 km</t>
-  </si>
-  <si>
-    <t>139.822 km</t>
-  </si>
-  <si>
     <t>120.536 km</t>
   </si>
   <si>
     <t>51.118 km</t>
   </si>
   <si>
-    <t>49.244 km</t>
-  </si>
-  <si>
     <t>nope</t>
   </si>
   <si>
@@ -151,6 +109,69 @@
   </si>
   <si>
     <t>6.3*10(13) km3</t>
+  </si>
+  <si>
+    <t>yees</t>
+  </si>
+  <si>
+    <t>1.41*10(18) km3</t>
+  </si>
+  <si>
+    <t>1.392.000 km</t>
+  </si>
+  <si>
+    <t>7.15*10(9) km3</t>
+  </si>
+  <si>
+    <t>142.984 km</t>
+  </si>
+  <si>
+    <t>49.528 km</t>
+  </si>
+  <si>
+    <t>12.756,2 km</t>
+  </si>
+  <si>
+    <t>12.103,6 km</t>
+  </si>
+  <si>
+    <t>6.792,4 km</t>
+  </si>
+  <si>
+    <t>4.879,4 km</t>
+  </si>
+  <si>
+    <t>2.390 km</t>
+  </si>
+  <si>
+    <t>17.700.000 km2</t>
+  </si>
+  <si>
+    <t>7.640.000.000 km2</t>
+  </si>
+  <si>
+    <t>8.110.000.000 km2</t>
+  </si>
+  <si>
+    <t>42.700.000.000 km2</t>
+  </si>
+  <si>
+    <t>62.100.000.000 km2</t>
+  </si>
+  <si>
+    <t>144.000.000 km2</t>
+  </si>
+  <si>
+    <t>510.000.000 km2</t>
+  </si>
+  <si>
+    <t>460.000.000 km2</t>
+  </si>
+  <si>
+    <t>74.800.000 km2</t>
+  </si>
+  <si>
+    <t>6.080.000.000.000 km2</t>
   </si>
 </sst>
 </file>
@@ -186,8 +207,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,16 +492,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="3" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
@@ -505,32 +526,47 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>5.5E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -541,13 +577,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
+      <c r="E5">
+        <v>0.86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -555,13 +597,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -569,13 +620,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -583,13 +640,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>1321</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -597,13 +660,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>764</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -611,13 +680,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -625,18 +700,39 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>6.6E-3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/planets.xlsx
+++ b/planets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benj4539\Documents\GitHub\SolSystemet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F737E46B-B576-41BC-B90E-1189D6EDE4A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDBDE28-12A9-4B6A-B261-F9AFFF6005AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,6 +548,9 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -591,6 +594,9 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -634,6 +640,9 @@
       <c r="F7" t="s">
         <v>28</v>
       </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -654,6 +663,9 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
+      <c r="G8">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -674,6 +686,9 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
+      <c r="G9">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -694,6 +709,9 @@
       <c r="F10" t="s">
         <v>18</v>
       </c>
+      <c r="G10">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -714,6 +732,9 @@
       <c r="F11" t="s">
         <v>18</v>
       </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -733,6 +754,9 @@
       </c>
       <c r="F12" t="s">
         <v>18</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/planets.xlsx
+++ b/planets.xlsx
@@ -1,31 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benj4539\Documents\GitHub\SolSystemet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SolSystemet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDBDE28-12A9-4B6A-B261-F9AFFF6005AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F0779A-8B01-486F-AB32-9E323D22DFC4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27840" yWindow="960" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{AFA84B7B-E38F-4009-B0D1-1DB1B735BCF1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+omkred til at diveder med</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Navne</t>
   </si>
@@ -75,12 +115,6 @@
     <t>Diameter</t>
   </si>
   <si>
-    <t>120.536 km</t>
-  </si>
-  <si>
-    <t>51.118 km</t>
-  </si>
-  <si>
     <t>nope</t>
   </si>
   <si>
@@ -117,33 +151,9 @@
     <t>1.41*10(18) km3</t>
   </si>
   <si>
-    <t>1.392.000 km</t>
-  </si>
-  <si>
     <t>7.15*10(9) km3</t>
   </si>
   <si>
-    <t>142.984 km</t>
-  </si>
-  <si>
-    <t>49.528 km</t>
-  </si>
-  <si>
-    <t>12.756,2 km</t>
-  </si>
-  <si>
-    <t>12.103,6 km</t>
-  </si>
-  <si>
-    <t>6.792,4 km</t>
-  </si>
-  <si>
-    <t>4.879,4 km</t>
-  </si>
-  <si>
-    <t>2.390 km</t>
-  </si>
-  <si>
     <t>17.700.000 km2</t>
   </si>
   <si>
@@ -172,13 +182,19 @@
   </si>
   <si>
     <t>6.080.000.000.000 km2</t>
+  </si>
+  <si>
+    <t>måle enhed</t>
+  </si>
+  <si>
+    <t>km</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,16 +202,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -203,15 +245,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Beregning" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,24 +551,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="14" max="14" width="27" customWidth="1"/>
+    <col min="15" max="15" width="35.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,246 +585,923 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="str">
+        <f>A:A</f>
+        <v>Navne</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O2" s="2">
+        <f>D6</f>
+        <v>12756.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1392000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1">
         <v>1300000</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <f t="shared" ref="N2:N65" si="0">A:A</f>
+        <v>Solen   Stjerne</v>
+      </c>
+      <c r="O3" s="3">
+        <f xml:space="preserve"> D3 / O2</f>
+        <v>109.12340665715494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="2">
+        <v>4879.3999999999996</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Merkur</v>
+      </c>
+      <c r="O4" s="3">
+        <f xml:space="preserve"> D4/O2</f>
+        <v>0.38251203336416795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2">
+        <v>12103.6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5">
         <v>0.86</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Venus</v>
+      </c>
+      <c r="O5" s="3">
+        <f xml:space="preserve"> D5 / O2</f>
+        <v>0.94884056380426773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12756.2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Jorden</v>
+      </c>
+      <c r="O6" s="3">
+        <f xml:space="preserve"> D6/O2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6792.4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Mars</v>
+      </c>
+      <c r="O7" s="3">
+        <f xml:space="preserve"> D7 / O2</f>
+        <v>0.53247832426584718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>142984</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
         <v>1321</v>
       </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Jupiter</v>
+      </c>
+      <c r="O8" s="3">
+        <f xml:space="preserve"> D8/O2</f>
+        <v>11.208980730938681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1">
+        <v>120536</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>764</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="E9">
-        <v>764</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9">
+      <c r="H9">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturn</v>
+      </c>
+      <c r="O9" s="3">
+        <f xml:space="preserve"> D9 / O2</f>
+        <v>9.4492090120882395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1">
+        <v>51118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Uranus</v>
+      </c>
+      <c r="O10" s="3">
+        <f xml:space="preserve"> D10/O2</f>
+        <v>4.0073062510779067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <v>49528</v>
+      </c>
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11">
+      <c r="F11">
         <v>57</v>
       </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Neptun</v>
+      </c>
+      <c r="O11" s="3">
+        <f xml:space="preserve"> D11 / O2</f>
+        <v>3.8826609805427945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2390</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12">
         <v>6.6E-3</v>
       </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pluto   Dværgplanet</v>
+      </c>
+      <c r="O12" s="3">
+        <f xml:space="preserve"> D12/O2</f>
+        <v>0.18735987206221288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N66">
+        <f t="shared" ref="N66:N104" si="1">A:A</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N104">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>